--- a/GUI/TouchGFXProjects/MyApplication/assets/texts/texts.xlsx
+++ b/GUI/TouchGFXProjects/MyApplication/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16577" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17185" uniqueCount="98">
   <si>
     <t xml:space="preserve">Font</t>
   </si>

--- a/GUI/TouchGFXProjects/MyApplication/assets/texts/texts.xlsx
+++ b/GUI/TouchGFXProjects/MyApplication/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17185" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18097" uniqueCount="98">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
